--- a/natmiOut/YoungD2/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H2">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I2">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J2">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N2">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q2">
-        <v>167.6158631952826</v>
+        <v>286.5835221422066</v>
       </c>
       <c r="R2">
-        <v>167.6158631952826</v>
+        <v>2579.251699279859</v>
       </c>
       <c r="S2">
-        <v>0.01619662667532395</v>
+        <v>0.02395384424643837</v>
       </c>
       <c r="T2">
-        <v>0.01619662667532395</v>
+        <v>0.02395384424643837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H3">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I3">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J3">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N3">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q3">
-        <v>390.2310858644311</v>
+        <v>574.1038906430682</v>
       </c>
       <c r="R3">
-        <v>390.2310858644311</v>
+        <v>5166.935015787613</v>
       </c>
       <c r="S3">
-        <v>0.03770781055184973</v>
+        <v>0.0479859940129929</v>
       </c>
       <c r="T3">
-        <v>0.03770781055184973</v>
+        <v>0.0479859940129929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H4">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I4">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J4">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.45710433948401</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N4">
-        <v>2.45710433948401</v>
+        <v>0.061213</v>
       </c>
       <c r="O4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q4">
-        <v>273.127244789184</v>
+        <v>3.276045481425223</v>
       </c>
       <c r="R4">
-        <v>273.127244789184</v>
+        <v>29.484409332827</v>
       </c>
       <c r="S4">
-        <v>0.02639213219071222</v>
+        <v>0.0002738255242999219</v>
       </c>
       <c r="T4">
-        <v>0.02639213219071222</v>
+        <v>0.0002738255242999218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.6959401150428</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H5">
-        <v>42.6959401150428</v>
+        <v>481.669079</v>
       </c>
       <c r="I5">
-        <v>0.03084197258465751</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J5">
-        <v>0.03084197258465751</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.50790399962251</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>1.50790399962251</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q5">
-        <v>64.38137886711621</v>
+        <v>3.229591174695</v>
       </c>
       <c r="R5">
-        <v>64.38137886711621</v>
+        <v>29.066320572255</v>
       </c>
       <c r="S5">
-        <v>0.006221136463309517</v>
+        <v>0.0002699426798862789</v>
       </c>
       <c r="T5">
-        <v>0.006221136463309517</v>
+        <v>0.0002699426798862788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.6959401150428</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H6">
-        <v>42.6959401150428</v>
+        <v>481.669079</v>
       </c>
       <c r="I6">
-        <v>0.03084197258465751</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J6">
-        <v>0.03084197258465751</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.51059263684639</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N6">
-        <v>3.51059263684639</v>
+        <v>7.842206</v>
       </c>
       <c r="O6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q6">
-        <v>149.8880529911036</v>
+        <v>419.7053490386972</v>
       </c>
       <c r="R6">
-        <v>149.8880529911036</v>
+        <v>3777.348141348274</v>
       </c>
       <c r="S6">
-        <v>0.01448359833674982</v>
+        <v>0.03508072091905303</v>
       </c>
       <c r="T6">
-        <v>0.01448359833674982</v>
+        <v>0.03508072091905303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H7">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I7">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J7">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45710433948401</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N7">
-        <v>2.45710433948401</v>
+        <v>5.354821</v>
       </c>
       <c r="O7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q7">
-        <v>104.9083797350211</v>
+        <v>76.38079845131124</v>
       </c>
       <c r="R7">
-        <v>104.9083797350211</v>
+        <v>687.4271860618011</v>
       </c>
       <c r="S7">
-        <v>0.01013723778459817</v>
+        <v>0.006384225219387986</v>
       </c>
       <c r="T7">
-        <v>0.01013723778459817</v>
+        <v>0.006384225219387986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>373.369277436438</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H8">
-        <v>373.369277436438</v>
+        <v>128.375381</v>
       </c>
       <c r="I8">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J8">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.50790399962251</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N8">
-        <v>1.50790399962251</v>
+        <v>10.727147</v>
       </c>
       <c r="O8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q8">
-        <v>563.0050267825715</v>
+        <v>153.0112870186675</v>
       </c>
       <c r="R8">
-        <v>563.0050267825715</v>
+        <v>1377.101583168007</v>
       </c>
       <c r="S8">
-        <v>0.05440285937915161</v>
+        <v>0.01278932057849967</v>
       </c>
       <c r="T8">
-        <v>0.05440285937915161</v>
+        <v>0.01278932057849967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>373.369277436438</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H9">
-        <v>373.369277436438</v>
+        <v>128.375381</v>
       </c>
       <c r="I9">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J9">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.51059263684639</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N9">
-        <v>3.51059263684639</v>
+        <v>0.061213</v>
       </c>
       <c r="O9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q9">
-        <v>1310.747436193016</v>
+        <v>0.873138021905889</v>
       </c>
       <c r="R9">
-        <v>1310.747436193016</v>
+        <v>7.858242197152999</v>
       </c>
       <c r="S9">
-        <v>0.1266567882356243</v>
+        <v>7.29805120198036E-05</v>
       </c>
       <c r="T9">
-        <v>0.1266567882356243</v>
+        <v>7.29805120198036E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>373.369277436438</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H10">
-        <v>373.369277436438</v>
+        <v>128.375381</v>
       </c>
       <c r="I10">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J10">
-        <v>0.2697081967892033</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.45710433948401</v>
+        <v>0.020115</v>
       </c>
       <c r="N10">
-        <v>2.45710433948401</v>
+        <v>0.060345</v>
       </c>
       <c r="O10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q10">
-        <v>917.407271819081</v>
+        <v>0.8607569296050002</v>
       </c>
       <c r="R10">
-        <v>917.407271819081</v>
+        <v>7.746812366445001</v>
       </c>
       <c r="S10">
-        <v>0.08864854917442738</v>
+        <v>7.194564876472398E-05</v>
       </c>
       <c r="T10">
-        <v>0.08864854917442738</v>
+        <v>7.194564876472397E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>563.879066299903</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H11">
-        <v>563.879066299903</v>
+        <v>128.375381</v>
       </c>
       <c r="I11">
-        <v>0.4073254425836279</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J11">
-        <v>0.4073254425836279</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.50790399962251</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N11">
-        <v>1.50790399962251</v>
+        <v>7.842206</v>
       </c>
       <c r="O11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q11">
-        <v>850.2754993770303</v>
+        <v>111.8606870144985</v>
       </c>
       <c r="R11">
-        <v>850.2754993770303</v>
+        <v>1006.746183130486</v>
       </c>
       <c r="S11">
-        <v>0.08216164372544897</v>
+        <v>0.009349782060097952</v>
       </c>
       <c r="T11">
-        <v>0.08216164372544897</v>
+        <v>0.009349782060097952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>563.879066299903</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H12">
-        <v>563.879066299903</v>
+        <v>1268.837158</v>
       </c>
       <c r="I12">
-        <v>0.4073254425836279</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J12">
-        <v>0.4073254425836279</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.51059263684639</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N12">
-        <v>3.51059263684639</v>
+        <v>5.354821</v>
       </c>
       <c r="O12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q12">
-        <v>1979.549698224257</v>
+        <v>754.9328732487464</v>
       </c>
       <c r="R12">
-        <v>1979.549698224257</v>
+        <v>6794.395859238719</v>
       </c>
       <c r="S12">
-        <v>0.1912827750082</v>
+        <v>0.06310043343435277</v>
       </c>
       <c r="T12">
-        <v>0.1912827750082</v>
+        <v>0.06310043343435279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>563.879066299903</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H13">
-        <v>563.879066299903</v>
+        <v>1268.837158</v>
       </c>
       <c r="I13">
-        <v>0.4073254425836279</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J13">
-        <v>0.4073254425836279</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.45710433948401</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N13">
-        <v>2.45710433948401</v>
+        <v>10.727147</v>
       </c>
       <c r="O13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q13">
-        <v>1385.509700749683</v>
+        <v>1512.333634769803</v>
       </c>
       <c r="R13">
-        <v>1385.509700749683</v>
+        <v>13611.00271292823</v>
       </c>
       <c r="S13">
-        <v>0.1338810238499789</v>
+        <v>0.1264071432479288</v>
       </c>
       <c r="T13">
-        <v>0.1338810238499789</v>
+        <v>0.1264071432479288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>275.265545124586</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H14">
-        <v>275.265545124586</v>
+        <v>1268.837158</v>
       </c>
       <c r="I14">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J14">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.50790399962251</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N14">
-        <v>1.50790399962251</v>
+        <v>0.061213</v>
       </c>
       <c r="O14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q14">
-        <v>415.0740164516338</v>
+        <v>8.629925439183777</v>
       </c>
       <c r="R14">
-        <v>415.0740164516338</v>
+        <v>77.669328952654</v>
       </c>
       <c r="S14">
-        <v>0.04010836897496939</v>
+        <v>0.0007213251071916385</v>
       </c>
       <c r="T14">
-        <v>0.04010836897496939</v>
+        <v>0.0007213251071916385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>275.265545124586</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H15">
-        <v>275.265545124586</v>
+        <v>1268.837158</v>
       </c>
       <c r="I15">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J15">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.51059263684639</v>
+        <v>0.020115</v>
       </c>
       <c r="N15">
-        <v>3.51059263684639</v>
+        <v>0.060345</v>
       </c>
       <c r="O15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q15">
-        <v>966.3451958918794</v>
+        <v>8.50755314439</v>
       </c>
       <c r="R15">
-        <v>966.3451958918794</v>
+        <v>76.56797829951</v>
       </c>
       <c r="S15">
-        <v>0.09337739327881267</v>
+        <v>0.0007110967211781717</v>
       </c>
       <c r="T15">
-        <v>0.09337739327881267</v>
+        <v>0.0007110967211781717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>275.265545124586</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H16">
-        <v>275.265545124586</v>
+        <v>1268.837158</v>
       </c>
       <c r="I16">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J16">
-        <v>0.1988416784677415</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.45710433948401</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N16">
-        <v>2.45710433948401</v>
+        <v>7.842206</v>
       </c>
       <c r="O16">
-        <v>0.328683185122893</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P16">
-        <v>0.328683185122893</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q16">
-        <v>676.3561654360519</v>
+        <v>1105.609152610061</v>
       </c>
       <c r="R16">
-        <v>676.3561654360519</v>
+        <v>9950.482373490548</v>
       </c>
       <c r="S16">
-        <v>0.06535591621395945</v>
+        <v>0.09241141724092775</v>
       </c>
       <c r="T16">
-        <v>0.06535591621395945</v>
+        <v>0.09241141724092776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.977302228058</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H17">
-        <v>17.977302228058</v>
+        <v>1707.301727</v>
       </c>
       <c r="I17">
-        <v>0.01298614015688389</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J17">
-        <v>0.01298614015688389</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N17">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O17">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P17">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q17">
-        <v>27.10804593211132</v>
+        <v>1015.810571230652</v>
       </c>
       <c r="R17">
-        <v>27.10804593211132</v>
+        <v>9142.295141075867</v>
       </c>
       <c r="S17">
-        <v>0.002619435246104428</v>
+        <v>0.08490567784658073</v>
       </c>
       <c r="T17">
-        <v>0.002619435246104428</v>
+        <v>0.08490567784658072</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.977302228058</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H18">
-        <v>17.977302228058</v>
+        <v>1707.301727</v>
       </c>
       <c r="I18">
-        <v>0.01298614015688389</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J18">
-        <v>0.01298614015688389</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N18">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P18">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q18">
-        <v>63.11098483218262</v>
+        <v>2034.941844320319</v>
       </c>
       <c r="R18">
-        <v>63.11098483218262</v>
+        <v>18314.47659888287</v>
       </c>
       <c r="S18">
-        <v>0.006098379001562562</v>
+        <v>0.1700889137834701</v>
       </c>
       <c r="T18">
-        <v>0.006098379001562562</v>
+        <v>0.17008891378347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>569.1005756666667</v>
+      </c>
+      <c r="H19">
+        <v>1707.301727</v>
+      </c>
+      <c r="I19">
+        <v>0.3812674923731751</v>
+      </c>
+      <c r="J19">
+        <v>0.381267492373175</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.061213</v>
+      </c>
+      <c r="O19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q19">
+        <v>11.61211784609456</v>
+      </c>
+      <c r="R19">
+        <v>104.509060614851</v>
+      </c>
+      <c r="S19">
+        <v>0.000970589167784086</v>
+      </c>
+      <c r="T19">
+        <v>0.0009705891677840857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>569.1005756666667</v>
+      </c>
+      <c r="H20">
+        <v>1707.301727</v>
+      </c>
+      <c r="I20">
+        <v>0.3812674923731751</v>
+      </c>
+      <c r="J20">
+        <v>0.381267492373175</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.020115</v>
+      </c>
+      <c r="N20">
+        <v>0.060345</v>
+      </c>
+      <c r="O20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q20">
+        <v>11.447458079535</v>
+      </c>
+      <c r="R20">
+        <v>103.027122715815</v>
+      </c>
+      <c r="S20">
+        <v>0.0009568262187759245</v>
+      </c>
+      <c r="T20">
+        <v>0.0009568262187759243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>569.1005756666667</v>
+      </c>
+      <c r="H21">
+        <v>1707.301727</v>
+      </c>
+      <c r="I21">
+        <v>0.3812674923731751</v>
+      </c>
+      <c r="J21">
+        <v>0.381267492373175</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.842206</v>
+      </c>
+      <c r="O21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q21">
+        <v>1487.667983032196</v>
+      </c>
+      <c r="R21">
+        <v>13389.01184728976</v>
+      </c>
+      <c r="S21">
+        <v>0.1243454853565642</v>
+      </c>
+      <c r="T21">
+        <v>0.1243454853565642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>276.4506886666666</v>
+      </c>
+      <c r="H22">
+        <v>829.3520659999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="J22">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.354821</v>
+      </c>
+      <c r="O22">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P22">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q22">
+        <v>493.4479843789095</v>
+      </c>
+      <c r="R22">
+        <v>4441.031859410185</v>
+      </c>
+      <c r="S22">
+        <v>0.04124443747908899</v>
+      </c>
+      <c r="T22">
+        <v>0.04124443747908899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>276.4506886666666</v>
+      </c>
+      <c r="H23">
+        <v>829.3520659999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="J23">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N23">
+        <v>10.727147</v>
+      </c>
+      <c r="O23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q23">
+        <v>988.5090585261891</v>
+      </c>
+      <c r="R23">
+        <v>8896.581526735701</v>
+      </c>
+      <c r="S23">
+        <v>0.08262370371866716</v>
+      </c>
+      <c r="T23">
+        <v>0.08262370371866716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>276.4506886666666</v>
+      </c>
+      <c r="H24">
+        <v>829.3520659999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="J24">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.061213</v>
+      </c>
+      <c r="O24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q24">
+        <v>5.640792001784221</v>
+      </c>
+      <c r="R24">
+        <v>50.767128016058</v>
+      </c>
+      <c r="S24">
+        <v>0.000471480886365291</v>
+      </c>
+      <c r="T24">
+        <v>0.000471480886365291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>276.4506886666666</v>
+      </c>
+      <c r="H25">
+        <v>829.3520659999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="J25">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.020115</v>
+      </c>
+      <c r="N25">
+        <v>0.060345</v>
+      </c>
+      <c r="O25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q25">
+        <v>5.560805602529999</v>
+      </c>
+      <c r="R25">
+        <v>50.04725042277</v>
+      </c>
+      <c r="S25">
+        <v>0.0004647952900154132</v>
+      </c>
+      <c r="T25">
+        <v>0.0004647952900154132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>17.977302228058</v>
-      </c>
-      <c r="H19">
-        <v>17.977302228058</v>
-      </c>
-      <c r="I19">
-        <v>0.01298614015688389</v>
-      </c>
-      <c r="J19">
-        <v>0.01298614015688389</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="N19">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="O19">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="P19">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="Q19">
-        <v>44.17210731677687</v>
-      </c>
-      <c r="R19">
-        <v>44.17210731677687</v>
-      </c>
-      <c r="S19">
-        <v>0.004268325909216904</v>
-      </c>
-      <c r="T19">
-        <v>0.004268325909216904</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>276.4506886666666</v>
+      </c>
+      <c r="H26">
+        <v>829.3520659999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="J26">
+        <v>0.1852074401950932</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.842206</v>
+      </c>
+      <c r="O26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q26">
+        <v>722.661083121955</v>
+      </c>
+      <c r="R26">
+        <v>6503.949748097595</v>
+      </c>
+      <c r="S26">
+        <v>0.06040302282095639</v>
+      </c>
+      <c r="T26">
+        <v>0.06040302282095639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20.809199</v>
+      </c>
+      <c r="H27">
+        <v>62.427597</v>
+      </c>
+      <c r="I27">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="J27">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.354821</v>
+      </c>
+      <c r="O27">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P27">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q27">
+        <v>37.14317859945967</v>
+      </c>
+      <c r="R27">
+        <v>334.288607395137</v>
+      </c>
+      <c r="S27">
+        <v>0.003104581548647475</v>
+      </c>
+      <c r="T27">
+        <v>0.003104581548647475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>20.809199</v>
+      </c>
+      <c r="H28">
+        <v>62.427597</v>
+      </c>
+      <c r="I28">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="J28">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N28">
+        <v>10.727147</v>
+      </c>
+      <c r="O28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q28">
+        <v>74.40777887508433</v>
+      </c>
+      <c r="R28">
+        <v>669.670009875759</v>
+      </c>
+      <c r="S28">
+        <v>0.00621931202664461</v>
+      </c>
+      <c r="T28">
+        <v>0.006219312026644611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>20.809199</v>
+      </c>
+      <c r="H29">
+        <v>62.427597</v>
+      </c>
+      <c r="I29">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="J29">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.061213</v>
+      </c>
+      <c r="O29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q29">
+        <v>0.4245978327956667</v>
+      </c>
+      <c r="R29">
+        <v>3.821380495161</v>
+      </c>
+      <c r="S29">
+        <v>3.548965508601649E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.548965508601649E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>20.809199</v>
+      </c>
+      <c r="H30">
+        <v>62.427597</v>
+      </c>
+      <c r="I30">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="J30">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.020115</v>
+      </c>
+      <c r="N30">
+        <v>0.060345</v>
+      </c>
+      <c r="O30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q30">
+        <v>0.418577037885</v>
+      </c>
+      <c r="R30">
+        <v>3.767193340965</v>
+      </c>
+      <c r="S30">
+        <v>3.498641197401966E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.498641197401966E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20.809199</v>
+      </c>
+      <c r="H31">
+        <v>62.427597</v>
+      </c>
+      <c r="I31">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="J31">
+        <v>0.01394107027871187</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N31">
+        <v>7.842206</v>
+      </c>
+      <c r="O31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q31">
+        <v>54.39667508433133</v>
+      </c>
+      <c r="R31">
+        <v>489.570075758982</v>
+      </c>
+      <c r="S31">
+        <v>0.004546700636359744</v>
+      </c>
+      <c r="T31">
+        <v>0.004546700636359745</v>
       </c>
     </row>
   </sheetData>
